--- a/medicine/Enfance/Le_Lion_qui_claquait_des_dents/Le_Lion_qui_claquait_des_dents.xlsx
+++ b/medicine/Enfance/Le_Lion_qui_claquait_des_dents/Le_Lion_qui_claquait_des_dents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Lion qui claquait des dents (titre original : The Mystery of the Nervous Lion) est un roman de Robert Arthur, Jr. et de Nick West (en), paru en 1971 aux États-Unis, faisant partie de la série policière pour adolescents Les Trois Jeunes Détectives.
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hannibal Jones, Peter Crentch et Bob Andy sont appelés par Alfred Hitchcock pour une enquête qui sort de l'ordinaire. Jim hall, un de ses amis, travaille au sein d'un parc animalier et est chargé des animaux sauvages. Or le lion Arthur, habituellement gentil et inoffensif, est depuis quelques jours agressif et stressé : il n'agit pas comme d'habitude. 
 Par la suite, le gorille et la panthère noire connaîtront aussi des problèmes de comportement.
@@ -546,7 +560,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le titre ne représente pas le comportement du lion tel qu'il est présenté dans le roman : le lion « ne claque pas des dents », il est plutôt agressif et tourmenté.
 </t>
